--- a/resources/experiment 1/predictions/multiple/LinearRegression/incidence/Retinopatías (INC).xlsx
+++ b/resources/experiment 1/predictions/multiple/LinearRegression/incidence/Retinopatías (INC).xlsx
@@ -535,7 +535,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-3.600171821110638</v>
+        <v>-3.600171821110636</v>
       </c>
       <c r="B3" t="n">
         <v>-2.416063872790074</v>
@@ -544,16 +544,16 @@
         <v>-4.51148796228351</v>
       </c>
       <c r="D3" t="n">
-        <v>-4.134898981499774</v>
+        <v>-4.134898981499767</v>
       </c>
       <c r="E3" t="n">
-        <v>-7.187665903305838</v>
+        <v>-7.187665903305845</v>
       </c>
       <c r="F3" t="n">
         <v>0.8210771355299187</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.044071033346412</v>
+        <v>-2.04407103334642</v>
       </c>
       <c r="H3" t="n">
         <v>-10.22498167231442</v>
@@ -573,54 +573,54 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-1.487987334213861</v>
+        <v>-1.48798733421386</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.203806620831832</v>
+        <v>-1.203806620831833</v>
       </c>
       <c r="C4" t="n">
         <v>-1.44905497463418</v>
       </c>
       <c r="D4" t="n">
-        <v>6.470160078083772</v>
+        <v>6.470160078083779</v>
       </c>
       <c r="E4" t="n">
-        <v>1.32530300211263</v>
+        <v>1.325303002112626</v>
       </c>
       <c r="F4" t="n">
         <v>12.81824278879071</v>
       </c>
       <c r="G4" t="n">
-        <v>12.11796339314985</v>
+        <v>12.11796339314984</v>
       </c>
       <c r="H4" t="n">
-        <v>4.187771374720015</v>
+        <v>4.187771374720022</v>
       </c>
       <c r="I4" t="n">
         <v>19.25955655340444</v>
       </c>
       <c r="J4" t="n">
-        <v>2.796248358286569</v>
+        <v>2.796248358286576</v>
       </c>
       <c r="K4" t="n">
-        <v>-1.919149609893068</v>
+        <v>-1.919149609893061</v>
       </c>
       <c r="L4" t="n">
-        <v>8.376207405694913</v>
+        <v>8.376207405694906</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-2.223962402960969</v>
+        <v>-2.223962402960967</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.616498714034202</v>
+        <v>-1.616498714034203</v>
       </c>
       <c r="C5" t="n">
         <v>-2.495337141486065</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.64853745926041</v>
+        <v>-1.648537459260403</v>
       </c>
       <c r="E5" t="n">
         <v>-4.791352484428135</v>
@@ -629,16 +629,16 @@
         <v>3.257387900494805</v>
       </c>
       <c r="G5" t="n">
-        <v>-1.097537132767926</v>
+        <v>-1.097537132767933</v>
       </c>
       <c r="H5" t="n">
-        <v>-9.15028274350508</v>
+        <v>-9.150282743505073</v>
       </c>
       <c r="I5" t="n">
         <v>6.561106041256608</v>
       </c>
       <c r="J5" t="n">
-        <v>-10.15914674299512</v>
+        <v>-10.15914674299511</v>
       </c>
       <c r="K5" t="n">
         <v>-13.72464261239906</v>
@@ -649,7 +649,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.647310034067225</v>
+        <v>2.647310034067226</v>
       </c>
       <c r="B6" t="n">
         <v>1.160390877789778</v>
@@ -658,7 +658,7 @@
         <v>4.619451220502933</v>
       </c>
       <c r="D6" t="n">
-        <v>20.70979263702308</v>
+        <v>20.70979263702309</v>
       </c>
       <c r="E6" t="n">
         <v>13.34759233459803</v>
@@ -667,7 +667,7 @@
         <v>28.33898935885883</v>
       </c>
       <c r="G6" t="n">
-        <v>27.58397867896323</v>
+        <v>27.58397867896322</v>
       </c>
       <c r="H6" t="n">
         <v>19.86849630918977</v>
@@ -708,13 +708,13 @@
         <v>54.69126698442584</v>
       </c>
       <c r="H7" t="n">
-        <v>46.816458294299</v>
+        <v>46.81645829429899</v>
       </c>
       <c r="I7" t="n">
         <v>60.95389837177592</v>
       </c>
       <c r="J7" t="n">
-        <v>45.59501884539253</v>
+        <v>45.59501884539254</v>
       </c>
       <c r="K7" t="n">
         <v>37.49963577035935</v>
@@ -728,7 +728,7 @@
         <v>13.03636285040902</v>
       </c>
       <c r="B8" t="n">
-        <v>6.981746696896421</v>
+        <v>6.981746696896422</v>
       </c>
       <c r="C8" t="n">
         <v>19.87300678875803</v>
@@ -746,7 +746,7 @@
         <v>110.5186777654698</v>
       </c>
       <c r="H8" t="n">
-        <v>102.897891500696</v>
+        <v>102.8978915006959</v>
       </c>
       <c r="I8" t="n">
         <v>115.3063238948625</v>
@@ -755,7 +755,7 @@
         <v>101.5122763582167</v>
       </c>
       <c r="K8" t="n">
-        <v>88.85776717470998</v>
+        <v>88.85776717470999</v>
       </c>
       <c r="L8" t="n">
         <v>110.1215351935394</v>
@@ -763,16 +763,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.931737827765596</v>
+        <v>1.931737827765597</v>
       </c>
       <c r="B9" t="n">
-        <v>0.7290033040982178</v>
+        <v>0.7290033040982173</v>
       </c>
       <c r="C9" t="n">
-        <v>3.59927379429862</v>
+        <v>3.599273794298621</v>
       </c>
       <c r="D9" t="n">
-        <v>19.40329935323455</v>
+        <v>19.40329935323456</v>
       </c>
       <c r="E9" t="n">
         <v>12.09266915765942</v>
@@ -781,10 +781,10 @@
         <v>27.03357715594971</v>
       </c>
       <c r="G9" t="n">
-        <v>27.03349840097358</v>
+        <v>27.03349840097357</v>
       </c>
       <c r="H9" t="n">
-        <v>19.10176250759929</v>
+        <v>19.1017625075993</v>
       </c>
       <c r="I9" t="n">
         <v>33.98573950705915</v>
@@ -813,13 +813,13 @@
         <v>81.25231650693092</v>
       </c>
       <c r="E10" t="n">
-        <v>61.48981090698347</v>
+        <v>61.48981090698346</v>
       </c>
       <c r="F10" t="n">
         <v>97.05673271940529</v>
       </c>
       <c r="G10" t="n">
-        <v>110.8761247242084</v>
+        <v>110.8761247242085</v>
       </c>
       <c r="H10" t="n">
         <v>103.0911644593219</v>
@@ -831,7 +831,7 @@
         <v>101.8177869317109</v>
       </c>
       <c r="K10" t="n">
-        <v>89.21918476545567</v>
+        <v>89.21918476545568</v>
       </c>
       <c r="L10" t="n">
         <v>110.5544765826987</v>
@@ -857,10 +857,10 @@
         <v>63.80694539608116</v>
       </c>
       <c r="G11" t="n">
-        <v>69.60680199224956</v>
+        <v>69.60680199224957</v>
       </c>
       <c r="H11" t="n">
-        <v>61.73044942717827</v>
+        <v>61.73044942717826</v>
       </c>
       <c r="I11" t="n">
         <v>75.68008132543063</v>
@@ -877,13 +877,13 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6.067035196046683</v>
+        <v>6.067035196046684</v>
       </c>
       <c r="B12" t="n">
         <v>3.093200802719828</v>
       </c>
       <c r="C12" t="n">
-        <v>9.667779989435733</v>
+        <v>9.667779989435735</v>
       </c>
       <c r="D12" t="n">
         <v>33.64293191217386</v>
@@ -924,7 +924,7 @@
         <v>20.83682443480079</v>
       </c>
       <c r="D13" t="n">
-        <v>74.44011225337528</v>
+        <v>74.44011225337526</v>
       </c>
       <c r="E13" t="n">
         <v>56.62807859738132</v>
@@ -933,7 +933,7 @@
         <v>88.80129003401851</v>
       </c>
       <c r="G13" t="n">
-        <v>98.21110447628031</v>
+        <v>98.21110447628033</v>
       </c>
       <c r="H13" t="n">
         <v>90.5198441426873</v>
@@ -942,7 +942,7 @@
         <v>103.561189392319</v>
       </c>
       <c r="J13" t="n">
-        <v>89.98336202610587</v>
+        <v>89.98336202610588</v>
       </c>
       <c r="K13" t="n">
         <v>78.44437446165657</v>
@@ -971,7 +971,7 @@
         <v>75.76048263912863</v>
       </c>
       <c r="G14" t="n">
-        <v>83.73022975489562</v>
+        <v>83.73022975489563</v>
       </c>
       <c r="H14" t="n">
         <v>76.0285103056198</v>
@@ -991,16 +991,16 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.8477529848113008</v>
+        <v>-0.8477529848112981</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.8169335552783314</v>
+        <v>-0.8169335552783323</v>
       </c>
       <c r="C15" t="n">
         <v>-0.4791863206886191</v>
       </c>
       <c r="D15" t="n">
-        <v>0.837824062978946</v>
+        <v>0.8378240629789531</v>
       </c>
       <c r="E15" t="n">
         <v>-2.395039065550424</v>
@@ -1009,7 +1009,7 @@
         <v>5.693698665459699</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.1510032321894386</v>
+        <v>-0.1510032321894528</v>
       </c>
       <c r="H15" t="n">
         <v>-8.075583814695733</v>
@@ -1018,7 +1018,7 @@
         <v>7.474055243428161</v>
       </c>
       <c r="J15" t="n">
-        <v>-8.569574049387747</v>
+        <v>-8.569574049387739</v>
       </c>
       <c r="K15" t="n">
         <v>-12.19868930135424</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2.61984253684043</v>
+        <v>2.619842536840432</v>
       </c>
       <c r="B16" t="n">
         <v>1.128785883476153</v>
@@ -1038,7 +1038,7 @@
         <v>4.607349204697343</v>
       </c>
       <c r="D16" t="n">
-        <v>20.64648011435423</v>
+        <v>20.64648011435424</v>
       </c>
       <c r="E16" t="n">
         <v>13.29082586709827</v>
@@ -1050,10 +1050,10 @@
         <v>27.50676535126282</v>
       </c>
       <c r="H16" t="n">
-        <v>19.63911197200396</v>
+        <v>19.63911197200397</v>
       </c>
       <c r="I16" t="n">
-        <v>34.44221410814493</v>
+        <v>34.44221410814492</v>
       </c>
       <c r="J16" t="n">
         <v>18.91011557140424</v>
@@ -1067,7 +1067,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6.121970190500272</v>
+        <v>6.121970190500273</v>
       </c>
       <c r="B17" t="n">
         <v>3.156410791347078</v>
@@ -1094,7 +1094,7 @@
         <v>48.92619621720311</v>
       </c>
       <c r="J17" t="n">
-        <v>35.20774798433717</v>
+        <v>35.20774798433716</v>
       </c>
       <c r="K17" t="n">
         <v>28.02321420845161</v>
@@ -1105,19 +1105,19 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-1.460519836987067</v>
+        <v>-1.460519836987065</v>
       </c>
       <c r="B18" t="n">
         <v>-1.172201626518208</v>
       </c>
       <c r="C18" t="n">
-        <v>-1.436952958828591</v>
+        <v>-1.43695295882859</v>
       </c>
       <c r="D18" t="n">
         <v>6.533472600752624</v>
       </c>
       <c r="E18" t="n">
-        <v>1.382069469612386</v>
+        <v>1.382069469612382</v>
       </c>
       <c r="F18" t="n">
         <v>12.90549960921739</v>
@@ -1126,7 +1126,7 @@
         <v>12.19517672085026</v>
       </c>
       <c r="H18" t="n">
-        <v>4.417155711905814</v>
+        <v>4.417155711905828</v>
       </c>
       <c r="I18" t="n">
         <v>19.17882293853894</v>
@@ -1146,13 +1146,13 @@
         <v>10.20900167815985</v>
       </c>
       <c r="B19" t="n">
-        <v>5.422900323695437</v>
+        <v>5.422900323695436</v>
       </c>
       <c r="C19" t="n">
-        <v>15.75633991731762</v>
+        <v>15.75633991731763</v>
       </c>
       <c r="D19" t="n">
-        <v>54.66311246333441</v>
+        <v>54.6631124633344</v>
       </c>
       <c r="E19" t="n">
         <v>40.9705968984825</v>
@@ -1161,7 +1161,7 @@
         <v>66.28688457125939</v>
       </c>
       <c r="G19" t="n">
-        <v>70.59194255667825</v>
+        <v>70.59194255667826</v>
       </c>
       <c r="H19" t="n">
         <v>62.91984052458051</v>
@@ -1181,7 +1181,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4.023519452216893</v>
+        <v>4.023519452216895</v>
       </c>
       <c r="B20" t="n">
         <v>1.959956036545649</v>
@@ -1199,10 +1199,10 @@
         <v>30.77530012382372</v>
       </c>
       <c r="G20" t="n">
-        <v>28.53051257954172</v>
+        <v>28.53051257954171</v>
       </c>
       <c r="H20" t="n">
-        <v>20.94319523799911</v>
+        <v>20.94319523799912</v>
       </c>
       <c r="I20" t="n">
         <v>35.27442969545098</v>
@@ -1211,7 +1211,7 @@
         <v>20.8258721138846</v>
       </c>
       <c r="K20" t="n">
-        <v>14.82562091649304</v>
+        <v>14.82562091649305</v>
       </c>
       <c r="L20" t="n">
         <v>26.85932213545144</v>
@@ -1219,16 +1219,16 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1.23696400485868</v>
+        <v>1.236964004858683</v>
       </c>
       <c r="B21" t="n">
-        <v>0.3637187023662847</v>
+        <v>0.3637187023662838</v>
       </c>
       <c r="C21" t="n">
-        <v>2.571144651155119</v>
+        <v>2.571144651155121</v>
       </c>
       <c r="D21" t="n">
-        <v>11.37957059989364</v>
+        <v>11.37957059989365</v>
       </c>
       <c r="E21" t="n">
         <v>6.061163372368291</v>
@@ -1237,16 +1237,16 @@
         <v>17.60360749829382</v>
       </c>
       <c r="G21" t="n">
-        <v>13.93381786660641</v>
+        <v>13.9338178666064</v>
       </c>
       <c r="H21" t="n">
-        <v>6.107784895152896</v>
+        <v>6.107784895152903</v>
       </c>
       <c r="I21" t="n">
         <v>21.16618857261306</v>
       </c>
       <c r="J21" t="n">
-        <v>5.649209896628335</v>
+        <v>5.649209896628342</v>
       </c>
       <c r="K21" t="n">
         <v>0.8650509690120742</v>
@@ -1266,7 +1266,7 @@
         <v>21.86495357794429</v>
       </c>
       <c r="D22" t="n">
-        <v>82.46384100671618</v>
+        <v>82.46384100671617</v>
       </c>
       <c r="E22" t="n">
         <v>62.65958438267245</v>
@@ -1295,10 +1295,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-0.1047132812828773</v>
+        <v>-0.1047132812828746</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.3539409872731469</v>
+        <v>-0.3539409872731474</v>
       </c>
       <c r="C23" t="n">
         <v>0.5530931213212824</v>
@@ -1313,13 +1313,13 @@
         <v>7.086367688795491</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4766903735006238</v>
+        <v>0.4766903735006096</v>
       </c>
       <c r="H23" t="n">
-        <v>-7.079465675919458</v>
+        <v>-7.079465675919451</v>
       </c>
       <c r="I23" t="n">
-        <v>7.769062614782918</v>
+        <v>7.769062614782925</v>
       </c>
       <c r="J23" t="n">
         <v>-7.122420004838091</v>
@@ -1333,13 +1333,13 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2.606108788227033</v>
+        <v>2.606108788227034</v>
       </c>
       <c r="B24" t="n">
-        <v>1.112983386319341</v>
+        <v>1.11298338631934</v>
       </c>
       <c r="C24" t="n">
-        <v>4.601298196794548</v>
+        <v>4.601298196794549</v>
       </c>
       <c r="D24" t="n">
         <v>20.61482385301981</v>
@@ -1351,7 +1351,7 @@
         <v>28.20810412821882</v>
       </c>
       <c r="G24" t="n">
-        <v>27.46815868741262</v>
+        <v>27.46815868741261</v>
       </c>
       <c r="H24" t="n">
         <v>19.52441980341106</v>
@@ -1371,19 +1371,19 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1.257366867304158</v>
+        <v>1.25736686730416</v>
       </c>
       <c r="B25" t="n">
-        <v>0.3450232218770948</v>
+        <v>0.3450232218770943</v>
       </c>
       <c r="C25" t="n">
-        <v>2.597249391802691</v>
+        <v>2.597249391802693</v>
       </c>
       <c r="D25" t="n">
         <v>18.1917748534493</v>
       </c>
       <c r="E25" t="n">
-        <v>10.92289568197045</v>
+        <v>10.92289568197044</v>
       </c>
       <c r="F25" t="n">
         <v>25.8590501836806</v>
@@ -1392,7 +1392,7 @@
         <v>26.59883811453454</v>
       </c>
       <c r="H25" t="n">
-        <v>18.67910521178752</v>
+        <v>18.67910521178753</v>
       </c>
       <c r="I25" t="n">
         <v>33.48889809854062</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1.291898999312269</v>
+        <v>1.291898999312272</v>
       </c>
       <c r="B26" t="n">
-        <v>0.4269286909935341</v>
+        <v>0.4269286909935337</v>
       </c>
       <c r="C26" t="n">
         <v>2.5953486827663</v>
@@ -1421,16 +1421,16 @@
         <v>11.50619564523134</v>
       </c>
       <c r="E26" t="n">
-        <v>6.174696307367803</v>
+        <v>6.1746963073678</v>
       </c>
       <c r="F26" t="n">
-        <v>17.77812113914717</v>
+        <v>17.77812113914716</v>
       </c>
       <c r="G26" t="n">
-        <v>14.08824452200723</v>
+        <v>14.08824452200722</v>
       </c>
       <c r="H26" t="n">
-        <v>6.566553569524501</v>
+        <v>6.566553569524515</v>
       </c>
       <c r="I26" t="n">
         <v>21.00472134288204</v>
@@ -1456,7 +1456,7 @@
         <v>22.86507727140383</v>
       </c>
       <c r="D27" t="n">
-        <v>76.98978629828348</v>
+        <v>76.98978629828346</v>
       </c>
       <c r="E27" t="n">
         <v>59.08115848375878</v>
@@ -1465,10 +1465,10 @@
         <v>91.32485761941007</v>
       </c>
       <c r="G27" t="n">
-        <v>99.2348517045592</v>
+        <v>99.23485170455922</v>
       </c>
       <c r="H27" t="n">
-        <v>91.82392740868247</v>
+        <v>91.82392740868245</v>
       </c>
       <c r="I27" t="n">
         <v>104.393404979625</v>
@@ -1477,7 +1477,7 @@
         <v>91.89911856858623</v>
       </c>
       <c r="K27" t="n">
-        <v>80.23803381588586</v>
+        <v>80.23803381588587</v>
       </c>
       <c r="L27" t="n">
         <v>100.1579536833327</v>
@@ -1485,16 +1485,16 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>6.059970561265367</v>
+        <v>6.059970561265366</v>
       </c>
       <c r="B28" t="n">
-        <v>3.042900327917014</v>
+        <v>3.042900327917013</v>
       </c>
       <c r="C28" t="n">
         <v>9.681782714277716</v>
       </c>
       <c r="D28" t="n">
-        <v>40.39182364306067</v>
+        <v>40.39182364306068</v>
       </c>
       <c r="E28" t="n">
         <v>28.91992433224722</v>
@@ -1509,10 +1509,10 @@
         <v>47.12442342151786</v>
       </c>
       <c r="I28" t="n">
-        <v>61.49110658772721</v>
+        <v>61.4911065877272</v>
       </c>
       <c r="J28" t="n">
-        <v>46.06362134332323</v>
+        <v>46.06362134332324</v>
       </c>
       <c r="K28" t="n">
         <v>37.99490638269727</v>
@@ -1523,13 +1523,13 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.5833914277919572</v>
+        <v>0.5833914277919598</v>
       </c>
       <c r="B29" t="n">
-        <v>0.04584159210478855</v>
+        <v>0.04584159210478811</v>
       </c>
       <c r="C29" t="n">
-        <v>1.561168531720007</v>
+        <v>1.561168531720005</v>
       </c>
       <c r="D29" t="n">
         <v>3.450810630556006</v>
@@ -1541,10 +1541,10 @@
         <v>8.304523071277934</v>
       </c>
       <c r="G29" t="n">
-        <v>0.9499573237898602</v>
+        <v>0.9499573237898531</v>
       </c>
       <c r="H29" t="n">
-        <v>-6.542116211514788</v>
+        <v>-6.542116211514774</v>
       </c>
       <c r="I29" t="n">
         <v>8.225537215868698</v>
@@ -1561,7 +1561,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>5.42013173281204</v>
+        <v>5.420131732812042</v>
       </c>
       <c r="B30" t="n">
         <v>2.74082571481233</v>
@@ -1579,16 +1579,16 @@
         <v>41.4670535741754</v>
       </c>
       <c r="G30" t="n">
-        <v>42.14206672804833</v>
+        <v>42.14206672804832</v>
       </c>
       <c r="H30" t="n">
-        <v>34.58921448344307</v>
+        <v>34.58921448344308</v>
       </c>
       <c r="I30" t="n">
         <v>48.51008842355009</v>
       </c>
       <c r="J30" t="n">
-        <v>34.24986971309699</v>
+        <v>34.24986971309698</v>
       </c>
       <c r="K30" t="n">
         <v>27.12638453133696</v>
@@ -1649,7 +1649,7 @@
         <v>70.6789137086818</v>
       </c>
       <c r="E32" t="n">
-        <v>53.00522523531488</v>
+        <v>53.00522523531487</v>
       </c>
       <c r="F32" t="n">
         <v>85.10319547635784</v>
@@ -1658,7 +1658,7 @@
         <v>96.75269696156238</v>
       </c>
       <c r="H32" t="n">
-        <v>88.7931035808804</v>
+        <v>88.79310358088038</v>
       </c>
       <c r="I32" t="n">
         <v>102.2321323964944</v>
@@ -1675,7 +1675,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>10.90377550106677</v>
+        <v>10.90377550106676</v>
       </c>
       <c r="B33" t="n">
         <v>5.78818492542737</v>
@@ -1693,22 +1693,22 @@
         <v>75.71685422891528</v>
       </c>
       <c r="G33" t="n">
-        <v>83.69162309104541</v>
+        <v>83.69162309104543</v>
       </c>
       <c r="H33" t="n">
-        <v>75.91381813702691</v>
+        <v>75.91381813702689</v>
       </c>
       <c r="I33" t="n">
-        <v>89.37221465461553</v>
+        <v>89.37221465461552</v>
       </c>
       <c r="J33" t="n">
-        <v>75.13288365772259</v>
+        <v>75.1328836577226</v>
       </c>
       <c r="K33" t="n">
         <v>64.75151055736008</v>
       </c>
       <c r="L33" t="n">
-        <v>83.02551888528804</v>
+        <v>83.02551888528802</v>
       </c>
     </row>
     <row r="34">
@@ -1751,10 +1751,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3.307947245915264</v>
+        <v>3.307947245915266</v>
       </c>
       <c r="B35" t="n">
-        <v>1.528568462854089</v>
+        <v>1.528568462854088</v>
       </c>
       <c r="C35" t="n">
         <v>5.615424615096066</v>
@@ -1772,10 +1772,10 @@
         <v>27.98003230155206</v>
       </c>
       <c r="H35" t="n">
-        <v>20.17646143640863</v>
+        <v>20.17646143640864</v>
       </c>
       <c r="I35" t="n">
-        <v>34.89868870923071</v>
+        <v>34.8986887092307</v>
       </c>
       <c r="J35" t="n">
         <v>19.70490191820793</v>
@@ -1789,7 +1789,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>5.38559960080393</v>
+        <v>5.385599600803929</v>
       </c>
       <c r="B36" t="n">
         <v>2.65892024569589</v>
@@ -1798,7 +1798,7 @@
         <v>8.679758311781788</v>
       </c>
       <c r="D36" t="n">
-        <v>39.18029914327541</v>
+        <v>39.18029914327542</v>
       </c>
       <c r="E36" t="n">
         <v>27.75015085655824</v>
@@ -1827,10 +1827,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.952536211160309</v>
+        <v>1.952536211160312</v>
       </c>
       <c r="B37" t="n">
-        <v>0.7951062760578447</v>
+        <v>0.7951062760578442</v>
       </c>
       <c r="C37" t="n">
         <v>3.591322077359433</v>
@@ -1839,19 +1839,19 @@
         <v>12.68606388368217</v>
       </c>
       <c r="E37" t="n">
-        <v>7.316086549306902</v>
+        <v>7.316086549306899</v>
       </c>
       <c r="F37" t="n">
         <v>18.90901970120294</v>
       </c>
       <c r="G37" t="n">
-        <v>14.48429814459606</v>
+        <v>14.48429814459605</v>
       </c>
       <c r="H37" t="n">
-        <v>6.874518696743372</v>
+        <v>6.87451869674338</v>
       </c>
       <c r="I37" t="n">
-        <v>21.54192955883333</v>
+        <v>21.54192955883332</v>
       </c>
       <c r="J37" t="n">
         <v>6.770180092305004</v>
@@ -1868,7 +1868,7 @@
         <v>12.33491991367002</v>
       </c>
       <c r="B38" t="n">
-        <v>6.65096007281049</v>
+        <v>6.650960072810491</v>
       </c>
       <c r="C38" t="n">
         <v>18.82482391286975</v>
@@ -1880,7 +1880,7 @@
         <v>49.51194903765084</v>
       </c>
       <c r="F38" t="n">
-        <v>78.32767863473353</v>
+        <v>78.32767863473352</v>
       </c>
       <c r="G38" t="n">
         <v>84.79258364702473</v>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>6.768873653734914</v>
+        <v>6.768873653734915</v>
       </c>
       <c r="B39" t="n">
         <v>3.508785879254576</v>
@@ -1915,7 +1915,7 @@
         <v>34.91776893462796</v>
       </c>
       <c r="E39" t="n">
-        <v>25.34149843333355</v>
+        <v>25.34149843333356</v>
       </c>
       <c r="F39" t="n">
         <v>43.81610751871361</v>
@@ -1924,7 +1924,7 @@
         <v>43.0113873009264</v>
       </c>
       <c r="H39" t="n">
-        <v>35.43452907506661</v>
+        <v>35.43452907506662</v>
       </c>
       <c r="I39" t="n">
         <v>49.50377124058716</v>
@@ -1936,21 +1936,21 @@
         <v>28.38463179919729</v>
       </c>
       <c r="L39" t="n">
-        <v>42.03508056004277</v>
+        <v>42.03508056004276</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-0.1117779160641934</v>
+        <v>-0.1117779160641916</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.4042414620759613</v>
+        <v>-0.4042414620759618</v>
       </c>
       <c r="C40" t="n">
-        <v>0.567095846163264</v>
+        <v>0.5670958461632658</v>
       </c>
       <c r="D40" t="n">
-        <v>8.956521600323128</v>
+        <v>8.956521600323136</v>
       </c>
       <c r="E40" t="n">
         <v>3.721616420990337</v>
@@ -1959,27 +1959,27 @@
         <v>15.2545535537556</v>
       </c>
       <c r="G40" t="n">
-        <v>13.06449729372834</v>
+        <v>13.06449729372833</v>
       </c>
       <c r="H40" t="n">
-        <v>5.262470303529355</v>
+        <v>5.262470303529369</v>
       </c>
       <c r="I40" t="n">
         <v>20.172505755576</v>
       </c>
       <c r="J40" t="n">
-        <v>4.385821051893942</v>
+        <v>4.385821051893949</v>
       </c>
       <c r="K40" t="n">
         <v>-0.3931962988482525</v>
       </c>
       <c r="L40" t="n">
-        <v>9.969285914103359</v>
+        <v>9.969285914103352</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4.738696137569288</v>
+        <v>4.738696137569287</v>
       </c>
       <c r="B41" t="n">
         <v>2.306545157788392</v>
@@ -2017,16 +2017,16 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>9.534630717698414</v>
+        <v>9.534630717698413</v>
       </c>
       <c r="B42" t="n">
         <v>5.038920241474313</v>
       </c>
       <c r="C42" t="n">
-        <v>14.75431551482169</v>
+        <v>14.7543155148217</v>
       </c>
       <c r="D42" t="n">
-        <v>53.45158796354915</v>
+        <v>53.45158796354914</v>
       </c>
       <c r="E42" t="n">
         <v>39.80082342279352</v>
@@ -2038,7 +2038,7 @@
         <v>70.15728227023922</v>
       </c>
       <c r="H42" t="n">
-        <v>62.49718322876875</v>
+        <v>62.49718322876874</v>
       </c>
       <c r="I42" t="n">
         <v>76.0558223116509</v>
@@ -2055,7 +2055,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>5.433865481425437</v>
+        <v>5.433865481425439</v>
       </c>
       <c r="B43" t="n">
         <v>2.756628211969142</v>
@@ -2073,7 +2073,7 @@
         <v>41.51068198438873</v>
       </c>
       <c r="G43" t="n">
-        <v>42.18067339189853</v>
+        <v>42.18067339189852</v>
       </c>
       <c r="H43" t="n">
         <v>34.70390665203598</v>
@@ -2093,7 +2093,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>6.768478132785679</v>
+        <v>6.768478132785678</v>
       </c>
       <c r="B44" t="n">
         <v>3.423987426805759</v>
@@ -2114,10 +2114,10 @@
         <v>68.22560780523204</v>
       </c>
       <c r="H44" t="n">
-        <v>60.23309320255716</v>
+        <v>60.23309320255715</v>
       </c>
       <c r="I44" t="n">
-        <v>74.27029071474055</v>
+        <v>74.27029071474054</v>
       </c>
       <c r="J44" t="n">
         <v>58.69283259573194</v>
@@ -2172,13 +2172,13 @@
         <v>9.582501077370686</v>
       </c>
       <c r="B46" t="n">
-        <v>5.051829755298748</v>
+        <v>5.051829755298749</v>
       </c>
       <c r="C46" t="n">
         <v>14.79252227127486</v>
       </c>
       <c r="D46" t="n">
-        <v>60.32710473977366</v>
+        <v>60.32710473977365</v>
       </c>
       <c r="E46" t="n">
         <v>44.71932219989543</v>
@@ -2216,7 +2216,7 @@
         <v>22.8911820120514</v>
       </c>
       <c r="D47" t="n">
-        <v>83.80199055183914</v>
+        <v>83.80199055183913</v>
       </c>
       <c r="E47" t="n">
         <v>63.94289079336093</v>
@@ -2245,7 +2245,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>6.094502693273477</v>
+        <v>6.094502693273479</v>
       </c>
       <c r="B48" t="n">
         <v>3.124805797033453</v>
@@ -2254,7 +2254,7 @@
         <v>9.679882005241323</v>
       </c>
       <c r="D48" t="n">
-        <v>33.70624443484271</v>
+        <v>33.70624443484272</v>
       </c>
       <c r="E48" t="n">
         <v>24.17172495764457</v>
@@ -2272,7 +2272,7 @@
         <v>49.00692983206862</v>
       </c>
       <c r="J48" t="n">
-        <v>34.88156413546419</v>
+        <v>34.88156413546418</v>
       </c>
       <c r="K48" t="n">
         <v>27.75550816526713</v>
@@ -2283,19 +2283,19 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>-0.8410838709792197</v>
+        <v>-0.8410838709792179</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.8514315329243338</v>
+        <v>-0.8514315329243347</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.4591325879438433</v>
+        <v>-0.4591325879438415</v>
       </c>
       <c r="D49" t="n">
-        <v>7.618372055200176</v>
+        <v>7.618372055200183</v>
       </c>
       <c r="E49" t="n">
-        <v>2.438310010301851</v>
+        <v>2.438310010301848</v>
       </c>
       <c r="F49" t="n">
         <v>13.90551294063314</v>
@@ -2304,13 +2304,13 @@
         <v>12.47541035188848</v>
       </c>
       <c r="H49" t="n">
-        <v>4.381044333345983</v>
+        <v>4.38104433334599</v>
       </c>
       <c r="I49" t="n">
-        <v>19.83713157678849</v>
+        <v>19.83713157678848</v>
       </c>
       <c r="J49" t="n">
-        <v>3.101758931780779</v>
+        <v>3.101758931780793</v>
       </c>
       <c r="K49" t="n">
         <v>-1.55773201914738</v>
@@ -2321,16 +2321,16 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.925068713933515</v>
+        <v>1.925068713933517</v>
       </c>
       <c r="B50" t="n">
-        <v>0.7635012817442202</v>
+        <v>0.7635012817442193</v>
       </c>
       <c r="C50" t="n">
-        <v>3.579220061553843</v>
+        <v>3.579220061553844</v>
       </c>
       <c r="D50" t="n">
-        <v>12.62275136101332</v>
+        <v>12.62275136101333</v>
       </c>
       <c r="E50" t="n">
         <v>7.259320081807147</v>
@@ -2342,10 +2342,10 @@
         <v>14.40708481689565</v>
       </c>
       <c r="H50" t="n">
-        <v>6.645134359557566</v>
+        <v>6.645134359557581</v>
       </c>
       <c r="I50" t="n">
-        <v>21.62266317369884</v>
+        <v>21.62266317369883</v>
       </c>
       <c r="J50" t="n">
         <v>6.443996243432025</v>
@@ -2359,7 +2359,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-3.572704323883843</v>
+        <v>-3.572704323883841</v>
       </c>
       <c r="B51" t="n">
         <v>-2.384458878476449</v>
@@ -2368,7 +2368,7 @@
         <v>-4.49938594647792</v>
       </c>
       <c r="D51" t="n">
-        <v>-4.071586458830922</v>
+        <v>-4.071586458830915</v>
       </c>
       <c r="E51" t="n">
         <v>-7.130899435806089</v>
@@ -2377,10 +2377,10 @@
         <v>0.9083339559565928</v>
       </c>
       <c r="G51" t="n">
-        <v>-1.966857705645999</v>
+        <v>-1.966857705646014</v>
       </c>
       <c r="H51" t="n">
-        <v>-9.995597335128622</v>
+        <v>-9.995597335128615</v>
       </c>
       <c r="I51" t="n">
         <v>5.567423224219546</v>
@@ -2392,12 +2392,12 @@
         <v>-14.98288988025939</v>
       </c>
       <c r="L51" t="n">
-        <v>-6.245410341388812</v>
+        <v>-6.245410341388805</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>8.839461373842264</v>
+        <v>8.839461373842262</v>
       </c>
       <c r="B52" t="n">
         <v>4.588837187293564</v>
@@ -2427,7 +2427,7 @@
         <v>72.74852461731153</v>
       </c>
       <c r="K52" t="n">
-        <v>62.46258059079287</v>
+        <v>62.46258059079286</v>
       </c>
       <c r="L52" t="n">
         <v>80.63590112267536</v>
@@ -2435,7 +2435,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>6.810074899575106</v>
+        <v>6.810074899575108</v>
       </c>
       <c r="B53" t="n">
         <v>3.556193370725013</v>
@@ -2453,7 +2453,7 @@
         <v>43.94699274935362</v>
       </c>
       <c r="G53" t="n">
-        <v>43.12720729247702</v>
+        <v>43.12720729247701</v>
       </c>
       <c r="H53" t="n">
         <v>35.77860558084532</v>
@@ -2462,10 +2462,10 @@
         <v>49.38267081828889</v>
       </c>
       <c r="J53" t="n">
-        <v>36.00253433114086</v>
+        <v>36.00253433114085</v>
       </c>
       <c r="K53" t="n">
-        <v>28.78619086397402</v>
+        <v>28.78619086397401</v>
       </c>
       <c r="L53" t="n">
         <v>42.39867842508768</v>
@@ -2473,7 +2473,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-0.8202854875845063</v>
+        <v>-0.8202854875845036</v>
       </c>
       <c r="B54" t="n">
         <v>-0.7853285609647074</v>
@@ -2491,10 +2491,10 @@
         <v>5.780955485886373</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.07378990448903266</v>
+        <v>-0.07378990448903977</v>
       </c>
       <c r="H54" t="n">
-        <v>-7.846199477509934</v>
+        <v>-7.846199477509927</v>
       </c>
       <c r="I54" t="n">
         <v>7.393321628562653</v>
@@ -2511,10 +2511,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.250697753472077</v>
+        <v>1.25069775347208</v>
       </c>
       <c r="B55" t="n">
-        <v>0.3795211995230972</v>
+        <v>0.3795211995230963</v>
       </c>
       <c r="C55" t="n">
         <v>2.577195659057915</v>
@@ -2532,7 +2532,7 @@
         <v>13.97242453045661</v>
       </c>
       <c r="H55" t="n">
-        <v>6.222477063745799</v>
+        <v>6.222477063745806</v>
       </c>
       <c r="I55" t="n">
         <v>21.12582176518031</v>
@@ -2549,10 +2549,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>10.20193704337854</v>
+        <v>10.20193704337853</v>
       </c>
       <c r="B56" t="n">
-        <v>5.372599848892622</v>
+        <v>5.372599848892621</v>
       </c>
       <c r="C56" t="n">
         <v>15.7703426421596</v>
@@ -2561,13 +2561,13 @@
         <v>61.41200419422121</v>
       </c>
       <c r="E56" t="n">
-        <v>45.77556274058489</v>
+        <v>45.7755627405849</v>
       </c>
       <c r="F56" t="n">
         <v>74.4550704362195</v>
       </c>
       <c r="G56" t="n">
-        <v>83.17974947690597</v>
+        <v>83.17974947690598</v>
       </c>
       <c r="H56" t="n">
         <v>75.26177650402933</v>
@@ -2579,7 +2579,7 @@
         <v>74.17500538648241</v>
       </c>
       <c r="K56" t="n">
-        <v>63.85468088024544</v>
+        <v>63.85468088024543</v>
       </c>
       <c r="L56" t="n">
         <v>82.10778034273551</v>
@@ -2599,22 +2599,22 @@
         <v>70.71056997001622</v>
       </c>
       <c r="E57" t="n">
-        <v>53.03360846906476</v>
+        <v>53.03360846906475</v>
       </c>
       <c r="F57" t="n">
         <v>85.14682388657118</v>
       </c>
       <c r="G57" t="n">
-        <v>96.79130362541258</v>
+        <v>96.7913036254126</v>
       </c>
       <c r="H57" t="n">
-        <v>88.90779574947331</v>
+        <v>88.90779574947328</v>
       </c>
       <c r="I57" t="n">
         <v>102.1917655890616</v>
       </c>
       <c r="J57" t="n">
-        <v>87.5990029856948</v>
+        <v>87.59900298569481</v>
       </c>
       <c r="K57" t="n">
         <v>76.15544449508934</v>
@@ -2625,16 +2625,16 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.966269959773706</v>
+        <v>1.966269959773709</v>
       </c>
       <c r="B58" t="n">
-        <v>0.8109087732146572</v>
+        <v>0.8109087732146567</v>
       </c>
       <c r="C58" t="n">
-        <v>3.597373085262228</v>
+        <v>3.597373085262229</v>
       </c>
       <c r="D58" t="n">
-        <v>12.71772014501659</v>
+        <v>12.7177201450166</v>
       </c>
       <c r="E58" t="n">
         <v>7.344469783056777</v>
@@ -2643,10 +2643,10 @@
         <v>18.95264811141627</v>
       </c>
       <c r="G58" t="n">
-        <v>14.52290480844627</v>
+        <v>14.52290480844626</v>
       </c>
       <c r="H58" t="n">
-        <v>6.989210865336275</v>
+        <v>6.989210865336283</v>
       </c>
       <c r="I58" t="n">
         <v>21.50156275140057</v>
@@ -2655,7 +2655,7 @@
         <v>6.933272016741498</v>
       </c>
       <c r="K58" t="n">
-        <v>2.029586689311202</v>
+        <v>2.029586689311209</v>
       </c>
       <c r="L58" t="n">
         <v>12.48010296506433</v>
@@ -2690,7 +2690,7 @@
         <v>75.06213949461383</v>
       </c>
       <c r="J59" t="n">
-        <v>60.7716810626488</v>
+        <v>60.77168106264879</v>
       </c>
       <c r="K59" t="n">
         <v>51.46020571784032</v>
@@ -2701,13 +2701,13 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-0.1459145271230691</v>
+        <v>-0.1459145271230664</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.4013484787435839</v>
+        <v>-0.4013484787435848</v>
       </c>
       <c r="C60" t="n">
-        <v>0.5349400976128997</v>
+        <v>0.534940097612898</v>
       </c>
       <c r="D60" t="n">
         <v>2.112661085433054</v>
@@ -2719,10 +2719,10 @@
         <v>6.95548245815548</v>
       </c>
       <c r="G60" t="n">
-        <v>0.3608703819500079</v>
+        <v>0.3608703819499937</v>
       </c>
       <c r="H60" t="n">
-        <v>-7.423542181698167</v>
+        <v>-7.423542181698153</v>
       </c>
       <c r="I60" t="n">
         <v>7.890163037081187</v>
@@ -2748,7 +2748,7 @@
         <v>17.79859547876264</v>
       </c>
       <c r="D61" t="n">
-        <v>63.96167823912943</v>
+        <v>63.96167823912942</v>
       </c>
       <c r="E61" t="n">
         <v>48.22864262696235</v>
@@ -2757,7 +2757,7 @@
         <v>76.97863802161106</v>
       </c>
       <c r="G61" t="n">
-        <v>84.20349670518486</v>
+        <v>84.20349670518488</v>
       </c>
       <c r="H61" t="n">
         <v>76.56585977002447</v>
@@ -2804,7 +2804,7 @@
         <v>75.63971451799787</v>
       </c>
       <c r="J62" t="n">
-        <v>61.077191636143</v>
+        <v>61.07719163614301</v>
       </c>
       <c r="K62" t="n">
         <v>51.821623308586</v>
@@ -2830,10 +2830,10 @@
         <v>50.62495604584007</v>
       </c>
       <c r="F63" t="n">
-        <v>79.41494878657596</v>
+        <v>79.41494878657595</v>
       </c>
       <c r="G63" t="n">
-        <v>85.15003060576335</v>
+        <v>85.15003060576336</v>
       </c>
       <c r="H63" t="n">
         <v>77.64055869883381</v>
@@ -2853,16 +2853,16 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-0.1321807785096718</v>
+        <v>-0.1321807785096691</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.3855459815867714</v>
+        <v>-0.3855459815867723</v>
       </c>
       <c r="C64" t="n">
         <v>0.540991105515694</v>
       </c>
       <c r="D64" t="n">
-        <v>2.144317346767473</v>
+        <v>2.14431734676748</v>
       </c>
       <c r="E64" t="n">
         <v>-1.140115888611813</v>
@@ -2871,22 +2871,22 @@
         <v>6.999110868368817</v>
       </c>
       <c r="G64" t="n">
-        <v>0.3994770458002108</v>
+        <v>0.3994770458001966</v>
       </c>
       <c r="H64" t="n">
-        <v>-7.308850013105264</v>
+        <v>-7.30885001310525</v>
       </c>
       <c r="I64" t="n">
         <v>7.849796229648433</v>
       </c>
       <c r="J64" t="n">
-        <v>-7.448603853711077</v>
+        <v>-7.44860385371107</v>
       </c>
       <c r="K64" t="n">
         <v>-11.16800660264736</v>
       </c>
       <c r="L64" t="n">
-        <v>-2.2627140703677</v>
+        <v>-2.262714070367693</v>
       </c>
     </row>
     <row r="65">
@@ -2900,7 +2900,7 @@
         <v>16.8105738011087</v>
       </c>
       <c r="D65" t="n">
-        <v>69.49904547023098</v>
+        <v>69.49904547023097</v>
       </c>
       <c r="E65" t="n">
         <v>51.86383499337578</v>
@@ -2912,7 +2912,7 @@
         <v>96.35664333897356</v>
       </c>
       <c r="H65" t="n">
-        <v>88.48513845366153</v>
+        <v>88.48513845366152</v>
       </c>
       <c r="I65" t="n">
         <v>101.6949241805431</v>
@@ -2929,7 +2929,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>8.138018437103266</v>
+        <v>8.138018437103268</v>
       </c>
       <c r="B66" t="n">
         <v>4.258050563207632</v>
@@ -2950,7 +2950,7 @@
         <v>56.5457281217326</v>
       </c>
       <c r="H66" t="n">
-        <v>48.85116398332478</v>
+        <v>48.85116398332477</v>
       </c>
       <c r="I66" t="n">
         <v>62.82016358355178</v>
@@ -2994,7 +2994,7 @@
         <v>62.24258856016774</v>
       </c>
       <c r="J67" t="n">
-        <v>48.30556173467658</v>
+        <v>48.30556173467657</v>
       </c>
       <c r="K67" t="n">
         <v>40.05627178011105</v>
@@ -3005,34 +3005,34 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.5351255471704492</v>
+        <v>0.535125547170451</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.05186637416846329</v>
+        <v>-0.05186637416846374</v>
       </c>
       <c r="C68" t="n">
         <v>1.557018232853602</v>
       </c>
       <c r="D68" t="n">
-        <v>10.10473357743953</v>
+        <v>10.10473357743955</v>
       </c>
       <c r="E68" t="n">
         <v>4.834623429179558</v>
       </c>
       <c r="F68" t="n">
-        <v>16.34182370559804</v>
+        <v>16.34182370559803</v>
       </c>
       <c r="G68" t="n">
         <v>13.42194425246696</v>
       </c>
       <c r="H68" t="n">
-        <v>5.455743262155323</v>
+        <v>5.45574326215533</v>
       </c>
       <c r="I68" t="n">
-        <v>20.75008077896004</v>
+        <v>20.75008077896003</v>
       </c>
       <c r="J68" t="n">
-        <v>4.691331625388159</v>
+        <v>4.691331625388166</v>
       </c>
       <c r="K68" t="n">
         <v>-0.03177870810257133</v>
@@ -3058,7 +3058,7 @@
         <v>63.8577410921113</v>
       </c>
       <c r="F69" t="n">
-        <v>99.44941507415686</v>
+        <v>99.44941507415685</v>
       </c>
       <c r="G69" t="n">
         <v>111.7840519609367</v>
@@ -3073,7 +3073,7 @@
         <v>103.2442677008818</v>
       </c>
       <c r="K69" t="n">
-        <v>90.61128505490824</v>
+        <v>90.61128505490825</v>
       </c>
       <c r="L69" t="n">
         <v>112.0263558027589</v>
@@ -3081,7 +3081,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>-0.09804416745079614</v>
+        <v>-0.09804416745079436</v>
       </c>
       <c r="B70" t="n">
         <v>-0.3884389649191493</v>
@@ -3090,7 +3090,7 @@
         <v>0.57314685406606</v>
       </c>
       <c r="D70" t="n">
-        <v>8.988177861657555</v>
+        <v>8.988177861657562</v>
       </c>
       <c r="E70" t="n">
         <v>3.749999654740215</v>
@@ -3099,10 +3099,10 @@
         <v>15.29818196396894</v>
       </c>
       <c r="G70" t="n">
-        <v>13.10310395757854</v>
+        <v>13.10310395757853</v>
       </c>
       <c r="H70" t="n">
-        <v>5.377162472122258</v>
+        <v>5.377162472122272</v>
       </c>
       <c r="I70" t="n">
         <v>20.13213894814324</v>
@@ -3125,7 +3125,7 @@
         <v>1.110090402986963</v>
       </c>
       <c r="C71" t="n">
-        <v>4.633453945344915</v>
+        <v>4.633453945344916</v>
       </c>
       <c r="D71" t="n">
         <v>27.45868436790989</v>
@@ -3157,7 +3157,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>4.00272106882218</v>
+        <v>4.002721068822181</v>
       </c>
       <c r="B72" t="n">
         <v>1.893853064586022</v>
@@ -3166,7 +3166,7 @@
         <v>6.643553758239565</v>
       </c>
       <c r="D72" t="n">
-        <v>29.91338962881482</v>
+        <v>29.91338962881483</v>
       </c>
       <c r="E72" t="n">
         <v>20.52048836182826</v>
@@ -3184,7 +3184,7 @@
         <v>47.7182396436768</v>
       </c>
       <c r="J72" t="n">
-        <v>32.17102124618014</v>
+        <v>32.17102124618015</v>
       </c>
       <c r="K72" t="n">
         <v>25.19887215551543</v>
